--- a/global_variable_template.xlsx
+++ b/global_variable_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15120" windowHeight="14220" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15120" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="2" r:id="rId1"/>
@@ -1599,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2369,7 +2369,7 @@
   <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2928,7 +2928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>

--- a/global_variable_template.xlsx
+++ b/global_variable_template.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="401">
   <si>
     <t>[3(FALSE)]</t>
   </si>
@@ -1236,6 +1236,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>comment</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1603,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1629,6 +1632,9 @@
       <c r="F1" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -1720,7 +1726,7 @@
   <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1755,6 +1761,9 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>151</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2926,10 +2935,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2942,7 +2951,7 @@
     <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2961,8 +2970,11 @@
       <c r="F1" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>399</v>
       </c>
@@ -2979,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -2994,7 +3006,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>29</v>
       </c>
@@ -3008,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>27</v>
       </c>
@@ -3022,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>28</v>
       </c>
@@ -3036,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>30</v>
       </c>
@@ -3050,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C8" s="9"/>
     </row>
   </sheetData>
@@ -3060,10 +3072,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3075,7 +3087,7 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -3094,8 +3106,11 @@
       <c r="F1" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>11000</v>
       </c>
@@ -3115,7 +3130,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>160</v>
       </c>
@@ -3132,7 +3147,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>161</v>
       </c>
@@ -3149,7 +3164,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>159</v>
       </c>
@@ -3166,7 +3181,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>162</v>
       </c>
@@ -3183,7 +3198,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>393</v>
       </c>
@@ -3200,7 +3215,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>163</v>
       </c>
@@ -3217,7 +3232,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>164</v>
       </c>
@@ -3234,7 +3249,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>165</v>
       </c>
@@ -3251,7 +3266,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>396</v>
       </c>
@@ -3268,7 +3283,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>389</v>
       </c>
@@ -3285,7 +3300,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>390</v>
       </c>
@@ -3302,15 +3317,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D16" s="1"/>
     </row>
   </sheetData>
@@ -3320,9 +3335,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3332,7 +3349,7 @@
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3348,8 +3365,11 @@
       <c r="E1" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>175</v>
       </c>
@@ -3363,7 +3383,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>176</v>
       </c>
@@ -3377,7 +3397,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>177</v>
       </c>
@@ -3391,7 +3411,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>178</v>
       </c>
@@ -3405,7 +3425,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -3419,7 +3439,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>182</v>
       </c>
@@ -3433,7 +3453,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>183</v>
       </c>
@@ -3447,7 +3467,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>179</v>
       </c>
@@ -3461,7 +3481,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>184</v>
       </c>
@@ -3475,7 +3495,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>185</v>
       </c>
@@ -3489,7 +3509,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>186</v>
       </c>
@@ -3503,7 +3523,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>180</v>
       </c>
@@ -3517,7 +3537,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>187</v>
       </c>
@@ -3531,7 +3551,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>188</v>
       </c>
@@ -3545,7 +3565,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>189</v>
       </c>
@@ -4866,7 +4886,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4890,6 +4910,9 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
+      <c r="E1" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
